--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/71_Şırnak_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/71_Şırnak_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96150E02-5F09-4C24-9DAD-E00F5B0A7C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B057CCB-05FF-42E1-BB79-1AA41BBAA9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" xr2:uid="{AA988FC4-BBE0-4F39-BAAF-382CE4E09118}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" xr2:uid="{93B5A5A4-8CB4-464B-8557-3DE1F5F9CF39}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -940,14 +940,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{62A1D65C-7FFB-4721-987A-E7CCE3CDD6B5}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C20144B3-629A-4162-B354-367A31E4C86F}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{E6FBE55D-9AE1-4383-B761-23AE32D48BA1}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{E7A841EF-09E5-4672-9724-0E229A09A454}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{2991661A-B0AE-491C-8925-3CAF227C64DB}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{94F3D5F8-8028-4420-8E82-80B6E3EEAEA4}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{7EC72DA3-8BF5-4F7A-A4F2-CA62AA3F7AEA}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{9B5EA064-0409-4E65-BB9B-76DD60C1062D}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8B021EC2-3163-46DF-B44F-352A01FE2361}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6B2269A1-4B02-41A8-AAA7-B7BA3901BDD7}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{3F55359F-112C-4AB9-BF92-55A01C615AC7}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{DDD7D50C-8335-48FA-B627-CABA46EF2E5C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{36C85992-01CF-4839-B586-5A3A3C561EF3}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{13493865-D248-45D0-B532-E3054BA78256}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{BFC741BE-761D-4BE9-A434-CBD0A240C55A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{D6C6658B-65FF-46C6-A7A7-D527B5124749}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1317,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066EE8BE-9957-43B2-991A-EC9F48ACF0D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E12E2CD-9D4A-41E5-8BDA-D5C9A673EA4F}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2602,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6251D2-3C95-4802-A2D0-FE6447E05E00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711F4D70-ED32-4A49-9A8D-86034F3A7E40}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -3851,7 +3851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF156D4-E263-403E-ACD4-1D00D572545A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA4507-8ECC-4896-B1F6-7E111D76E588}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -5100,7 +5100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901CF44F-FC53-4E67-A72E-CE5C6B878D9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BC404F-201C-49C1-84D2-AFE6B2E28C3E}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -6339,7 +6339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C5C20F-101C-40E0-B65B-282B4C782E7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D526192C-1720-41BB-9C91-1523EB7D6345}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7623,7 +7623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8497E017-AF2C-4746-83F4-3F7BEA352A16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1715038D-6238-43E1-9AD7-418198B0BD43}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8907,7 +8907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A44EC2-2A80-483C-957B-50B78AF9C5EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EECDD1-26F0-43B9-AC83-5935EF79A63B}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -10192,7 +10192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{851552A8-3AF8-4D3E-A3B2-483AC4F6C326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BAD193-BB20-4D64-91DD-16422A52554F}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -11477,7 +11477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBF44E0-08C6-4919-9AE7-BE55511C22D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B398A47-AACD-488D-A091-8AC40EFFCB99}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:F104"/>
   <sheetViews>
@@ -12762,7 +12762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BED54DD-66E0-423D-BC91-66F7CD92C7F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB22D50-45AE-4C91-96CD-DC0653149565}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:F103"/>
   <sheetViews>
@@ -14035,7 +14035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790074FE-284F-4A48-A2F8-A19057EC6C8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46023817-25FC-4BBE-B340-12BBFC8A9407}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="A1:F103"/>
   <sheetViews>
@@ -15308,7 +15308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F9B670-8E7F-4D44-A0DC-3D721C4F8135}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9258A5-8EA6-4996-A5CE-C5FF01B8AFAC}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1:F102"/>
   <sheetViews>
